--- a/EHS2019/EHS/ExcelGenerator/Template/eHSM0001-PreAuthorization_Template.xlsx
+++ b/EHS2019/EHS/ExcelGenerator/Template/eHSM0001-PreAuthorization_Template.xlsx
@@ -1,24 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ce5-fs01\ehs$\Development\InternalChangeControl\2017\CRE17-004 (Generate a new DPAR on EHCP basis)\Front-end\ExcelGenerator\Template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="2700" yWindow="60" windowWidth="15660" windowHeight="9675"/>
   </bookViews>
   <sheets>
     <sheet name="Content" sheetId="1" r:id="rId1"/>
     <sheet name="Summary" sheetId="2" r:id="rId2"/>
-    <sheet name="01" sheetId="3" r:id="rId3"/>
-    <sheet name="Remark" sheetId="4" r:id="rId4"/>
-    <sheet name="Change History" sheetId="5" r:id="rId5"/>
+    <sheet name="01" sheetId="8" r:id="rId3"/>
+    <sheet name="02" sheetId="7" r:id="rId4"/>
+    <sheet name="03" sheetId="3" r:id="rId5"/>
+    <sheet name="Remark" sheetId="4" r:id="rId6"/>
+    <sheet name="Change History" sheetId="5" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="69">
   <si>
     <t>Residential Care Home Seasonal Influenza Vaccination for Health Care Worker</t>
   </si>
@@ -134,10 +141,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Pre Authorization Checking File</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2. Subsidy Legend</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -193,26 +196,70 @@
     <t>Extend portability of health care voucher to Mainland</t>
   </si>
   <si>
+    <t>CRE15-006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rename of eHS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eHS(S)M0001-02</t>
+  </si>
+  <si>
     <t>eHS(S)M0001-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eHS(S)M0001-01: Pre Authorization Checking File</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRE15-006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rename of eHS</t>
+  </si>
+  <si>
+    <t>eHS(S)M0001-03</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Service Provider ID</t>
+  </si>
+  <si>
+    <t>No. of Transaction</t>
+  </si>
+  <si>
+    <t>CRE17-004</t>
+  </si>
+  <si>
+    <t>To generate a new Detailed Payment Analysis Report (DPAR) on EHCP basis for monthly reimbursement exercise</t>
+  </si>
+  <si>
+    <t>EHCP selected for checking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre Authorization Checking File (on EHCP Basis)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre Authorization Checking File (on Practice Basis)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre Authorization Checking File (on Transaction Basis)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eHS(S)M0001-01: Pre Authorization Checking File (on EHCP Basis)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eHS(S)M0001-02: Pre Authorization Checking File (on Practice Basis)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eHS(S)M0001-03: Pre Authorization Checking File (on Transaction Basis)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="d\ mmm\ yyyy\ h:mm"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
@@ -281,7 +328,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -356,6 +403,17 @@
     </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -367,6 +425,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -415,7 +476,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -450,7 +511,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -659,7 +720,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -678,14 +739,38 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>37</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -706,7 +791,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18.625" style="14" customWidth="1"/>
     <col min="3" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -761,13 +846,147 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="25" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="26" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="26" customWidth="1"/>
+    <col min="5" max="5" width="19" style="26" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="26" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="26" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="8" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="23"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5" style="7" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="25.125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="21.375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="20.625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="10" style="23" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="8" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.5" style="9" customWidth="1"/>
     <col min="2" max="2" width="25.5" style="4" customWidth="1"/>
     <col min="3" max="3" width="25.125" style="4" customWidth="1"/>
     <col min="4" max="4" width="21.375" style="4" customWidth="1"/>
@@ -775,12 +994,13 @@
     <col min="6" max="6" width="16.75" style="4" customWidth="1"/>
     <col min="7" max="7" width="11.625" style="4" customWidth="1"/>
     <col min="8" max="8" width="19.375" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="4"/>
+    <col min="9" max="9" width="10.375" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>54</v>
+      <c r="A1" s="27" t="s">
+        <v>68</v>
       </c>
       <c r="H1" s="10"/>
     </row>
@@ -788,7 +1008,7 @@
       <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:12" s="8" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="28" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -807,7 +1027,7 @@
         <v>31</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>32</v>
@@ -850,7 +1070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
@@ -864,7 +1084,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>24</v>
@@ -872,7 +1092,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -917,7 +1137,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -984,9 +1204,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1001,21 +1221,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1023,10 +1243,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="D4" s="12">
         <v>41679</v>
@@ -1037,10 +1257,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="D5" s="12">
         <v>41821</v>
@@ -1051,10 +1271,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>51</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>52</v>
       </c>
       <c r="D6" s="24">
         <v>42213</v>
@@ -1065,13 +1285,27 @@
         <v>4</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D7" s="24">
         <v>42430</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="24">
+        <v>44103</v>
       </c>
     </row>
   </sheetData>

--- a/EHS2019/EHS/ExcelGenerator/Template/eHSM0001-PreAuthorization_Template.xlsx
+++ b/EHS2019/EHS/ExcelGenerator/Template/eHSM0001-PreAuthorization_Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ce5-fs01\ehs$\Development\InternalChangeControl\2017\CRE17-004 (Generate a new DPAR on EHCP basis)\Front-end\ExcelGenerator\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ce5-fs01\ehs$\Development\InternalChangeControl\2020\CRE20-016 (To update the format of the Pre Authorization Checking File)\Front-end\ExcelGenerator\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
   <si>
     <t>Residential Care Home Seasonal Influenza Vaccination for Health Care Worker</t>
   </si>
@@ -253,6 +253,22 @@
   </si>
   <si>
     <t>eHS(S)M0001-03: Pre Authorization Checking File (on Transaction Basis)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRE20-016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To update the format of the Pre Authorization Checking File</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Selected</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -913,68 +929,77 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="7" customWidth="1"/>
-    <col min="2" max="2" width="25.5" style="7" customWidth="1"/>
-    <col min="3" max="3" width="25.125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="21.375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="20.625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="23" customWidth="1"/>
-    <col min="7" max="7" width="10" style="23" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="6.5" style="14" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="7" customWidth="1"/>
+    <col min="4" max="4" width="25.125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="21.375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="20.625" style="20" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="23" customWidth="1"/>
+    <col min="8" max="8" width="10" style="23" customWidth="1"/>
+    <col min="9" max="9" width="10.875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="8" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="8" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="I3" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="23"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="20"/>
       <c r="G4" s="23"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="15"/>
       <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1206,7 +1231,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1308,6 +1333,20 @@
         <v>44103</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <v>6</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="24">
+        <v>44162</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EHS2019/EHS/ExcelGenerator/Template/eHSM0001-PreAuthorization_Template.xlsx
+++ b/EHS2019/EHS/ExcelGenerator/Template/eHSM0001-PreAuthorization_Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ce5-fs01\ehs$\Development\InternalChangeControl\2020\CRE20-016 (To update the format of the Pre Authorization Checking File)\Front-end\ExcelGenerator\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ce5-fs01\ehs$\Development\InternalChangeControl\2021\CRE21-020 (Add School Code to Pre-Auth)\Front-end\ExcelGenerator\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="75">
   <si>
     <t>Residential Care Home Seasonal Influenza Vaccination for Health Care Worker</t>
   </si>
@@ -269,6 +269,14 @@
   </si>
   <si>
     <t>Selected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRE21-020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To include the School Code in the Pre-Authorization Checking File (for both PPP-PS and PPP-KG)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1065,7 +1073,7 @@
         <v/>
       </c>
       <c r="K3" s="5" t="str">
-        <f>IF(LEN(K4) &gt; 0,"RCH Code","")</f>
+        <f>IF(LEN(K4) &gt; 0,IF(LEN(L4) &gt; 0,"RCH Code","School Code"),"")</f>
         <v/>
       </c>
       <c r="L3" s="5" t="str">
@@ -1231,7 +1239,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1347,6 +1355,20 @@
         <v>44162</v>
       </c>
     </row>
+    <row r="10" spans="1:4" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
+        <v>7</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="24">
+        <v>44530</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
